--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -477,6 +477,42 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Info ACMT</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-07-13 11:46:56.805044</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Info ACMT</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-07-13 11:51:57.935872</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -1,33 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\log\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB43E5-20EF-423C-882A-4F6B08203DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="log" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>chat_id</t>
+  </si>
+  <si>
+    <t>aktifitas</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,80 +68,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -419,98 +382,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="30.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>chat_id</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>aktifitas</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>time</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="n">
-        <v>1029804860</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Info ACMT</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2023-07-13 06:05:40.844584</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="n">
-        <v>1029804860</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Info ACMT</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2023-07-13 11:46:56.805044</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1029804860</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Info ACMT</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023-07-13 11:51:57.935872</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39FB43E5-20EF-423C-882A-4F6B08203DE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>chat_id</t>
-  </si>
-  <si>
-    <t>aktifitas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,32 +419,62 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="30.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>chat_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>aktifitas</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B2" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Add user</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-07-27 16:19:30.185193</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
@@ -477,6 +477,330 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-08-27 12:24:08.809666</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-08-27 12:29:22.081420</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-08-28 11:56:19.713636</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:24:38.833037</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:25:10.724502</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:27:37.693104</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:30:30.944016</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:35:04.575610</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:35:47.626011</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:36:20.304000</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2023-08-28 15:36:41.239902</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2023-08-28 16:08:24.880039</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2023-08-28 16:19:35.497789</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2023-08-28 20:27:41.937119</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2023-08-28 20:31:20.912933</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2023-08-28 20:32:58.325586</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2023-08-28 20:51:46.004077</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Info Pembelian token</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023-08-28 21:11:03.332767</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -1,55 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\NEWASMENTE\data\log\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A939B740-11B6-433C-8DBF-D3DBD5CE5BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="log" sheetId="1" r:id="rId1"/>
+    <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>no</t>
-  </si>
-  <si>
-    <t>chat_id</t>
-  </si>
-  <si>
-    <t>aktifitas</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -68,21 +46,80 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,32 +419,80 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25" bestFit="1" customWidth="1"/>
+    <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="30.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>chat_id</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>aktifitas</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2023-11-29 13:57:21.018079</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
+      <c r="B3" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2023-11-29 14:08:54.931743</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -495,6 +495,24 @@
         </is>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023-11-29 14:50:26.210406</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -513,6 +513,42 @@
         </is>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023-11-29 22:31:29.216531</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2023-11-29 22:40:54.573362</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -549,6 +549,96 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2023-11-30 10:03:33.580581</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2023-11-30 10:25:03.094062</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142634</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2023-11-30 10:36:56.109754</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142634</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2023-11-30 11:36:35.243650</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Comissioning : 321409142643</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2023-11-30 11:47:16.659859</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="log" sheetId="1" state="visible" r:id="rId1"/>
@@ -424,16 +424,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F22" sqref="F22:G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="30.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="40.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
     <col width="25" bestFit="1" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
@@ -639,6 +639,726 @@
         </is>
       </c>
     </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1150570046</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Update kodeunit User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:25:56.049148</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1150570046</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Update kodeunit User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:36:22.293893</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1150570046</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Update kodeunit User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:41:20.215383</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1150570046</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Update kodeunit User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:41:43.701175</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1150570046</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Update password User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2024-01-23 16:42:51.394860</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:41:54.627027</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:48:46.337505</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:49:51.270929</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:53:51.905983</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:56:05.273184</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:56:36.750809</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2024-02-15 16:58:04.970570</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:01:26.628572</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:04:40.930549</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:10:34.078473</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:22:27.102536</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:26:28.245574</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:27:22.617833</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:35:42.649394</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:41:27.314640</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024-02-15 17:52:40.446925</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024-02-15 18:13:01.113359</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2024-02-15 18:14:13.499114</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2024-02-16 08:29:27.048319</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2024-02-16 16:24:49.064022</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2024-02-16 16:26:28.905733</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2024-02-20 18:59:51.221017</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2024-02-20 19:10:28.687124</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2024-02-21 13:31:32.867423</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2024-02-21 13:33:41.623318</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2024-02-26 15:03:38.375692</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2024-02-26 15:07:24.296093</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2024-02-26 15:33:02.150689</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2024-02-26 15:39:20.171416</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024-02-26 15:43:10.892385</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024-03-29 23:23:35.784225</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024-03-29 23:34:09.383979</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024-03-30 12:03:53.701396</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024-03-30 12:11:15.370993</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024-03-30 12:36:55.424760</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1359,6 +1359,96 @@
         </is>
       </c>
     </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024-04-05 21:39:00.401184</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2024-04-05 21:47:46.299130</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2024-04-05 21:48:44.320886</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2024-04-05 21:49:15.179507</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024-04-05 21:50:24.157885</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1449,6 +1449,240 @@
         </is>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024-04-07 14:34:12.482066</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024-04-07 14:34:20.956135</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024-04-07 14:35:28.791878</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:06:12.267686</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:06:24.537684</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:08:42.170035</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:11:22.621013</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:13:13.392705</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:14:38.757558</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:16:17.027163</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:18:18.548904</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2024-04-07 23:21:16.495770</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2024-04-08 00:00:17.531625</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D69"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1683,6 +1683,114 @@
         </is>
       </c>
     </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:44:57.398196</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:50:26.575065</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:52:13.871170</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:54:29.836717</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2024-04-13 16:57:30.624989</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2024-04-13 17:00:03.252257</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D75"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1791,6 +1791,42 @@
         </is>
       </c>
     </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2024-04-13 18:19:22.037154</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2024-04-13 18:24:34.572418</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D77"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1827,6 +1827,78 @@
         </is>
       </c>
     </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2024-04-13 21:52:09.757979</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2024-04-13 21:56:32.155943</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2024-04-13 22:01:55.302989</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2024-04-13 22:03:19.469434</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:D85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1899,6 +1899,78 @@
         </is>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Update password User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:16:25.952803</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Update jabatan User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:17:44.556537</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Update Invalid value User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:18:42.771086</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Update Invalid value User dengan NIP 9009002F</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2024-04-15 11:19:52.006342</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -1971,6 +1971,42 @@
         </is>
       </c>
     </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Comissioning : 321209507925</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2024-04-15 16:52:27.033523</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Comissioning : 321209507925</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2024-04-15 17:04:22.494594</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D87"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2007,6 +2007,60 @@
         </is>
       </c>
     </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Comissioning : 321209507925</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2024-04-15 17:25:56.062249</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Comissioning : 321209507925</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2024-04-15 17:27:10.181425</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Comissioning : 321209507925</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2024-04-15 18:50:22.929435</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D90"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2061,6 +2061,60 @@
         </is>
       </c>
     </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Comissioning : 321216128603</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2024-04-15 20:06:36.056623</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Comissioning : 321216128603</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2024-04-15 21:09:07.751739</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Comissioning : 321216128603</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2024-04-15 21:26:59.490944</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D93"/>
+  <dimension ref="A1:D94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2115,6 +2115,24 @@
         </is>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2024-06-23 21:21:06.413886</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D94"/>
+  <dimension ref="A1:D95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2133,6 +2133,24 @@
         </is>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2024-06-24 19:16:51.358957</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D95"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2151,6 +2151,168 @@
         </is>
       </c>
     </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:05:57.669832</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:09:46.702111</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:10:06.705498</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Foto ACMT idpel : 321209619897</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:24:52.708456</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:32:09.594092</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:36:10.369144</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:43:53.864940</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:50:07.445261</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2024-06-29 23:54:23.134963</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D148"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -2313,6 +2313,798 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2024-06-30 09:05:14.950033</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2024-06-30 09:06:35.539553</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:11:05.425560</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:11:38.683190</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:12:25.762035</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:13:20.879137</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:14:15.134013</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:15:55.076966</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:18:04.192734</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:21:22.637826</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:25:10.453381</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2024-07-01 18:31:43.460438</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:35:39.994755</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:36:10.588447</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:38:25.745788</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:39:33.156368</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:43:48.860921</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:44:37.853440</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:45:18.599498</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:45:56.679385</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2024-07-02 16:46:28.972734</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:37:37.948663</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:39:38.433745</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:49:17.590017</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Add user</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:57:04.933686</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:58:09.722239</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:59:12.172059</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2024-07-04 10:59:40.112937</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2024-07-04 14:28:12.079572</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:34:11.811772</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:34:41.312611</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:35:24.145247</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024-07-04 15:36:02.697016</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024-07-04 16:56:20.809449</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024-07-04 16:57:41.233263</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024-07-05 08:21:11.820647</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:11:31.516743</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:13:16.555485</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:13:38.393354</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:15:53.448691</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:16:39.986099</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024-07-05 10:43:23.501819</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024-07-05 12:00:55.315406</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024-07-05 12:02:24.434162</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D148"/>
+  <dimension ref="A1:D168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -3105,6 +3105,366 @@
         </is>
       </c>
     </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024-07-10 12:02:09.052470</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:07:02.966008</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:08:21.776483</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:12:05.055967</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024-07-10 17:12:53.425952</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:39:20.113771</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:39:59.004339</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:40:22.624225</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024-07-10 20:52:31.015518</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:04:51.616241</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:09:41.606414</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:10:02.836638</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:19:27.726786</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2024-07-10 21:28:55.976831</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2024-07-11 16:22:31.230450</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2024-07-11 16:42:01.289028</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2024-07-11 16:58:05.438464</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2024-07-11 17:00:19.568133</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024-07-11 18:09:49.083971</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2024-07-11 18:10:10.393811</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D168"/>
+  <dimension ref="A1:D263"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -3465,6 +3465,1716 @@
         </is>
       </c>
     </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2024-07-12 16:59:45.223620</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:00:28.454365</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:01:23.535991</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:02:45.069265</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:03:21.986726</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:08:36.975343</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:49:23.977072</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:50:06.990008</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:50:48.640268</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:51:38.113849</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:52:12.426666</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:52:46.408425</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:57:02.321051</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:57:36.748340</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024-07-12 17:58:13.293826</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2024-07-12 18:17:13.060038</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024-07-12 18:20:43.623502</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2024-07-12 18:48:01.302773</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024-07-12 19:36:24.980040</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2024-07-12 19:37:01.820898</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024-07-15 18:33:58.056896</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2024-07-15 18:34:26.881198</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:18:58.346956</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:20:01.036335</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:20:15.053284</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2024-07-16 16:22:36.458810</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:18:53.376448</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:22:59.858737</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:23:56.964588</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:43:45.428532</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:47:33.290038</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:51:19.894328</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2024-07-16 17:51:47.536472</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:20:58.190255</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:30:47.007821</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:34:35.970999</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2024-07-16 18:43:04.730593</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2024-07-17 16:48:33.144739</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2024-07-17 16:49:44.722156</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2024-07-17 16:55:58.469196</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2024-07-17 16:57:22.832740</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2024-07-17 18:06:41.224621</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2024-07-17 18:31:34.236716</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2024-07-17 18:34:06.876737</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2024-07-17 19:02:18.587324</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2024-07-17 19:02:46.785627</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Infoblokir</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2024-07-17 19:05:04.646312</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2024-07-17 19:28:14.301688</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2024-07-17 19:35:16.431070</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2024-07-18 16:42:54.753470</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2024-07-18 18:55:08.902888</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2024-07-18 19:13:14.771659</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2024-07-18 19:14:01.789270</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2024-07-19 17:35:18.319056</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2024-07-19 17:47:55.907440</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2024-07-19 17:57:49.958640</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2024-07-19 18:53:40.176334</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2024-07-19 18:57:08.851350</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2024-07-19 18:57:32.461673</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2024-07-19 20:20:58.633929</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2024-07-21 10:17:40.413288</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2024-07-21 13:57:58.185753</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2024-07-22 15:05:33.583567</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2024-07-22 16:27:30.496507</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="n">
+        <v>232</v>
+      </c>
+      <c r="B233" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2024-07-22 17:37:53.692642</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="n">
+        <v>233</v>
+      </c>
+      <c r="B234" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>2024-07-22 17:38:48.437114</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="n">
+        <v>234</v>
+      </c>
+      <c r="B235" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2024-07-22 18:42:06.144046</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="n">
+        <v>235</v>
+      </c>
+      <c r="B236" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2024-07-22 18:48:02.131867</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="n">
+        <v>236</v>
+      </c>
+      <c r="B237" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2024-07-22 18:52:08.787718</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="n">
+        <v>237</v>
+      </c>
+      <c r="B238" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2024-07-22 19:07:38.503144</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="n">
+        <v>238</v>
+      </c>
+      <c r="B239" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2024-07-22 19:16:57.353659</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="n">
+        <v>239</v>
+      </c>
+      <c r="B240" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2024-07-23 18:50:05.814244</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>240</v>
+      </c>
+      <c r="B241" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:07:55.391653</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>241</v>
+      </c>
+      <c r="B242" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:08:40.984100</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>242</v>
+      </c>
+      <c r="B243" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:24:54.170897</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>243</v>
+      </c>
+      <c r="B244" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:30:01.344552</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>244</v>
+      </c>
+      <c r="B245" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:39:43.045547</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>245</v>
+      </c>
+      <c r="B246" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2024-07-23 19:55:37.009471</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>246</v>
+      </c>
+      <c r="B247" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2024-07-23 20:13:12.088714</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>247</v>
+      </c>
+      <c r="B248" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2024-07-24 16:24:34.415205</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>248</v>
+      </c>
+      <c r="B249" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2024-07-24 18:49:39.199493</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>249</v>
+      </c>
+      <c r="B250" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2024-07-24 18:56:16.431415</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>250</v>
+      </c>
+      <c r="B251" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2024-07-25 16:44:37.739633</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>251</v>
+      </c>
+      <c r="B252" t="n">
+        <v>6473262382</v>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2024-07-25 16:45:41.334184</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="n">
+        <v>252</v>
+      </c>
+      <c r="B253" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2024-07-25 16:54:34.900448</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="n">
+        <v>253</v>
+      </c>
+      <c r="B254" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:05:38.175271</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="n">
+        <v>254</v>
+      </c>
+      <c r="B255" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:12:59.564367</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="n">
+        <v>255</v>
+      </c>
+      <c r="B256" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:13:29.669824</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="n">
+        <v>256</v>
+      </c>
+      <c r="B257" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:37:55.458468</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="n">
+        <v>257</v>
+      </c>
+      <c r="B258" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:41:28.944838</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="n">
+        <v>258</v>
+      </c>
+      <c r="B259" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:42:01.247510</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="n">
+        <v>259</v>
+      </c>
+      <c r="B260" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2024-07-25 20:44:00.271809</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="n">
+        <v>260</v>
+      </c>
+      <c r="B261" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2024-07-26 18:03:37.725262</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="n">
+        <v>261</v>
+      </c>
+      <c r="B262" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2024-07-26 18:04:11.118060</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="n">
+        <v>262</v>
+      </c>
+      <c r="B263" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2024-07-26 18:07:51.409143</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D263"/>
+  <dimension ref="A1:D293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -5175,6 +5175,546 @@
         </is>
       </c>
     </row>
+    <row r="264">
+      <c r="A264" t="n">
+        <v>263</v>
+      </c>
+      <c r="B264" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2024-07-29 17:30:20.668248</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="n">
+        <v>264</v>
+      </c>
+      <c r="B265" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2024-07-29 17:31:57.990398</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="n">
+        <v>265</v>
+      </c>
+      <c r="B266" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2024-07-29 18:38:53.049810</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="n">
+        <v>266</v>
+      </c>
+      <c r="B267" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>2024-07-29 18:58:33.757631</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="n">
+        <v>267</v>
+      </c>
+      <c r="B268" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Add user</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2024-07-30 15:26:16.639377</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="n">
+        <v>268</v>
+      </c>
+      <c r="B269" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:42:24.180796</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="n">
+        <v>269</v>
+      </c>
+      <c r="B270" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:43:25.835575</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="n">
+        <v>270</v>
+      </c>
+      <c r="B271" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:44:29.026010</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="n">
+        <v>271</v>
+      </c>
+      <c r="B272" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:45:08.311373</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="n">
+        <v>272</v>
+      </c>
+      <c r="B273" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:45:33.992416</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="n">
+        <v>273</v>
+      </c>
+      <c r="B274" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:46:16.152798</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="n">
+        <v>274</v>
+      </c>
+      <c r="B275" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2024-07-30 17:46:36.125724</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="n">
+        <v>275</v>
+      </c>
+      <c r="B276" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:20:13.367459</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="n">
+        <v>276</v>
+      </c>
+      <c r="B277" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:20:46.156950</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="n">
+        <v>277</v>
+      </c>
+      <c r="B278" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:34:39.703646</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="n">
+        <v>278</v>
+      </c>
+      <c r="B279" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:36:50.409450</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="n">
+        <v>279</v>
+      </c>
+      <c r="B280" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:37:46.339847</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="n">
+        <v>280</v>
+      </c>
+      <c r="B281" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:51:37.265321</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="n">
+        <v>281</v>
+      </c>
+      <c r="B282" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2024-07-30 18:58:09.744323</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="n">
+        <v>282</v>
+      </c>
+      <c r="B283" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2024-07-30 19:02:08.416197</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="n">
+        <v>283</v>
+      </c>
+      <c r="B284" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2024-07-30 19:15:50.316209</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="n">
+        <v>284</v>
+      </c>
+      <c r="B285" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2024-07-30 19:27:05.002617</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="n">
+        <v>285</v>
+      </c>
+      <c r="B286" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D286" t="inlineStr">
+        <is>
+          <t>2024-07-30 19:28:41.808572</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="n">
+        <v>286</v>
+      </c>
+      <c r="B287" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2024-07-31 18:21:24.934501</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="n">
+        <v>287</v>
+      </c>
+      <c r="B288" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2024-07-31 18:37:28.130751</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="n">
+        <v>288</v>
+      </c>
+      <c r="B289" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2024-07-31 18:45:17.702898</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="n">
+        <v>289</v>
+      </c>
+      <c r="B290" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2024-07-31 18:57:12.414347</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="n">
+        <v>290</v>
+      </c>
+      <c r="B291" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2024-07-31 19:16:16.943330</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="n">
+        <v>291</v>
+      </c>
+      <c r="B292" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2024-07-31 19:20:38.577126</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="n">
+        <v>292</v>
+      </c>
+      <c r="B293" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2024-07-31 20:22:46.185023</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D293"/>
+  <dimension ref="A1:D342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -5715,6 +5715,888 @@
         </is>
       </c>
     </row>
+    <row r="294">
+      <c r="A294" t="n">
+        <v>293</v>
+      </c>
+      <c r="B294" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2024-08-01 18:39:33.921844</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="n">
+        <v>294</v>
+      </c>
+      <c r="B295" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2024-08-01 18:41:42.891580</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="n">
+        <v>295</v>
+      </c>
+      <c r="B296" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2024-08-01 20:36:28.965519</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="n">
+        <v>296</v>
+      </c>
+      <c r="B297" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2024-08-02 11:58:47.139073</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="n">
+        <v>297</v>
+      </c>
+      <c r="B298" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2024-08-02 13:38:53.707008</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="n">
+        <v>298</v>
+      </c>
+      <c r="B299" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2024-08-02 16:48:24.386965</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="n">
+        <v>299</v>
+      </c>
+      <c r="B300" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2024-08-02 16:54:01.793432</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="n">
+        <v>300</v>
+      </c>
+      <c r="B301" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2024-08-02 17:01:05.466701</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="n">
+        <v>301</v>
+      </c>
+      <c r="B302" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2024-08-02 21:20:26.956734</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2024-08-02 21:21:38.693158</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2024-08-02 21:23:44.036122</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2024-08-03 19:03:50.706240</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2024-08-04 18:56:04.420543</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2024-08-04 18:56:57.719613</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2024-08-04 19:02:47.319959</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2024-08-05 12:32:31.959295</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2024-08-05 19:05:27.113903</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2024-08-05 19:16:22.528421</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2024-08-05 19:17:49.523834</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2024-08-05 19:47:36.509962</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2024-08-06 11:27:20.543417</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2024-08-06 11:31:49.456870</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2024-08-06 12:35:58.975906</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2024-08-06 14:53:19.543667</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2024-08-06 14:54:36.216102</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2024-08-06 15:45:59.957390</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2024-08-06 18:06:57.781362</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2024-08-06 19:02:02.202456</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2024-08-07 18:04:27.549784</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2024-08-07 18:36:40.149517</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2024-08-07 18:56:10.378994</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2024-08-07 19:04:30.151956</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2024-08-08 15:22:57.849132</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2024-08-08 15:23:51.777035</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2024-08-08 16:52:47.180524</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2024-08-08 16:53:46.714194</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2024-08-08 17:20:53.706300</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2024-08-08 17:22:00.235698</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2024-08-08 18:26:34.797366</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2024-08-08 19:02:27.742309</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:18:00.815462</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2024-08-09 13:45:36.435277</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:44:11.524876</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:49:35.937887</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2024-08-09 15:50:55.227468</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2024-08-09 16:12:04.999344</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2024-08-09 17:37:01.448408</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2024-08-09 18:05:32.535381</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2024-08-09 19:25:34.558922</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D342"/>
+  <dimension ref="A1:D344"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -6597,6 +6597,42 @@
         </is>
       </c>
     </row>
+    <row r="343">
+      <c r="A343" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2024-08-10 17:33:45.357562</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2024-08-10 17:34:26.384949</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D344"/>
+  <dimension ref="A1:D425"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -6633,6 +6633,1464 @@
         </is>
       </c>
     </row>
+    <row r="345">
+      <c r="A345" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2024-08-11 18:47:38.152176</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2024-08-11 18:48:02.041069</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2024-08-12 12:05:39.701934</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2024-08-12 17:08:34.138336</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2024-08-12 17:16:08.954664</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2024-08-12 17:17:07.992543</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2024-08-12 18:18:22.371038</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2024-08-12 19:03:11.106292</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2024-08-13 17:44:30.587210</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2024-08-13 17:51:04.132538</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2024-08-13 18:10:34.427925</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2024-08-14 08:10:18.247182</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2024-08-14 18:11:35.494058</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2024-08-14 18:34:40.862322</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2024-08-14 18:35:21.667392</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="n">
+        <v>359</v>
+      </c>
+      <c r="B360" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D360" t="inlineStr">
+        <is>
+          <t>2024-08-15 14:50:19.364612</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="n">
+        <v>360</v>
+      </c>
+      <c r="B361" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D361" t="inlineStr">
+        <is>
+          <t>2024-08-15 18:09:55.925464</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="n">
+        <v>361</v>
+      </c>
+      <c r="B362" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D362" t="inlineStr">
+        <is>
+          <t>2024-08-15 18:12:04.311864</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="n">
+        <v>362</v>
+      </c>
+      <c r="B363" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>2024-08-16 18:36:29.158275</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="n">
+        <v>363</v>
+      </c>
+      <c r="B364" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D364" t="inlineStr">
+        <is>
+          <t>2024-08-16 18:41:26.304731</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="n">
+        <v>364</v>
+      </c>
+      <c r="B365" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D365" t="inlineStr">
+        <is>
+          <t>2024-08-16 19:01:41.204533</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="n">
+        <v>365</v>
+      </c>
+      <c r="B366" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D366" t="inlineStr">
+        <is>
+          <t>2024-08-16 19:05:57.356391</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="n">
+        <v>366</v>
+      </c>
+      <c r="B367" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D367" t="inlineStr">
+        <is>
+          <t>2024-08-16 19:20:34.960499</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="n">
+        <v>367</v>
+      </c>
+      <c r="B368" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D368" t="inlineStr">
+        <is>
+          <t>2024-08-16 20:56:30.688026</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="n">
+        <v>368</v>
+      </c>
+      <c r="B369" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D369" t="inlineStr">
+        <is>
+          <t>2024-08-16 20:57:08.795439</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="n">
+        <v>369</v>
+      </c>
+      <c r="B370" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D370" t="inlineStr">
+        <is>
+          <t>2024-08-17 19:01:33.982002</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="n">
+        <v>370</v>
+      </c>
+      <c r="B371" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D371" t="inlineStr">
+        <is>
+          <t>2024-08-18 19:02:21.035606</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="n">
+        <v>371</v>
+      </c>
+      <c r="B372" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D372" t="inlineStr">
+        <is>
+          <t>2024-08-19 17:13:31.924416</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="n">
+        <v>372</v>
+      </c>
+      <c r="B373" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D373" t="inlineStr">
+        <is>
+          <t>2024-08-19 17:22:51.222305</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="n">
+        <v>373</v>
+      </c>
+      <c r="B374" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D374" t="inlineStr">
+        <is>
+          <t>2024-08-19 19:02:47.591429</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="n">
+        <v>374</v>
+      </c>
+      <c r="B375" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D375" t="inlineStr">
+        <is>
+          <t>2024-08-20 10:29:48.299114</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="n">
+        <v>375</v>
+      </c>
+      <c r="B376" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D376" t="inlineStr">
+        <is>
+          <t>2024-08-20 12:21:44.245252</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="n">
+        <v>376</v>
+      </c>
+      <c r="B377" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D377" t="inlineStr">
+        <is>
+          <t>2024-08-20 15:08:25.498440</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>2024-08-20 17:16:47.812391</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:09:30.001900</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:23:47.175844</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:27:50.861767</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:31:40.504268</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:33:40.902974</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>2024-08-20 18:52:41.096508</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>2024-08-20 19:03:38.228362</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>2024-08-20 19:07:42.879648</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:27:22.750846</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:27:39.255840</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:27:59.094871</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:28:18.816179</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:35:27.773031</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:39:26.443394</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>2024-08-21 13:40:51.158482</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>2024-08-21 14:46:52.633637</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:14:37.902685</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:19:01.905904</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:29:21.074693</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:29:43.069459</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:34:25.988415</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2024-08-21 15:35:51.618367</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2024-08-21 16:58:57.610442</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2024-08-21 17:04:54.994062</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2024-08-21 17:48:36.014873</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2024-08-21 17:54:48.623875</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2024-08-21 17:57:07.656294</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2024-08-21 19:01:11.800422</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2024-08-22 15:20:04.213299</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2024-08-22 15:28:48.374408</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2024-08-22 17:16:48.426494</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="n">
+        <v>409</v>
+      </c>
+      <c r="B410" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D410" t="inlineStr">
+        <is>
+          <t>2024-08-22 17:30:06.551401</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="n">
+        <v>410</v>
+      </c>
+      <c r="B411" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D411" t="inlineStr">
+        <is>
+          <t>2024-08-22 17:41:27.924130</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="n">
+        <v>411</v>
+      </c>
+      <c r="B412" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D412" t="inlineStr">
+        <is>
+          <t>2024-08-22 18:16:52.419421</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="n">
+        <v>412</v>
+      </c>
+      <c r="B413" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D413" t="inlineStr">
+        <is>
+          <t>2024-08-22 18:41:03.880630</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2024-08-22 19:41:11.823306</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2024-08-23 11:37:37.283557</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2024-08-23 11:51:46.402721</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>2024-08-23 12:57:57.510277</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>2024-08-23 13:38:24.583863</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>2024-08-23 13:48:30.934077</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2024-08-23 15:31:16.519831</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>2024-08-23 15:33:16.963882</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2024-08-23 16:02:03.782297</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2024-08-23 18:04:45.415065</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2024-08-24 08:25:51.683590</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>424</v>
+      </c>
+      <c r="B425" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>2024-08-24 15:26:04.543667</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/log/log.xlsx
+++ b/data/log/log.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D425"/>
+  <dimension ref="A1:D628"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F22" sqref="F22:G22"/>
@@ -8091,6 +8091,3660 @@
         </is>
       </c>
     </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>425</v>
+      </c>
+      <c r="B426" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>2024-08-24 15:46:28.758678</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>426</v>
+      </c>
+      <c r="B427" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>2024-08-25 08:43:00.936511</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>427</v>
+      </c>
+      <c r="B428" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>2024-08-25 08:47:30.789512</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>428</v>
+      </c>
+      <c r="B429" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>2024-08-25 08:48:13.469298</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>429</v>
+      </c>
+      <c r="B430" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>2024-08-25 08:55:12.513280</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2024-08-25 09:02:23.094076</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>431</v>
+      </c>
+      <c r="B432" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>2024-08-25 09:13:27.876064</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>432</v>
+      </c>
+      <c r="B433" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>2024-08-25 18:05:43.748893</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2024-08-25 19:02:49.608886</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Otomatis</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2024-08-25 20:00:32.522154</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="n">
+        <v>435</v>
+      </c>
+      <c r="B436" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D436" t="inlineStr">
+        <is>
+          <t>2024-08-25 20:31:52.881516</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="n">
+        <v>436</v>
+      </c>
+      <c r="B437" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D437" t="inlineStr">
+        <is>
+          <t>2024-08-25 21:21:13.408557</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="n">
+        <v>437</v>
+      </c>
+      <c r="B438" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D438" t="inlineStr">
+        <is>
+          <t>2024-08-26 10:48:00.336736</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="n">
+        <v>438</v>
+      </c>
+      <c r="B439" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C439" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D439" t="inlineStr">
+        <is>
+          <t>2024-08-26 11:09:40.569012</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="n">
+        <v>439</v>
+      </c>
+      <c r="B440" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C440" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D440" t="inlineStr">
+        <is>
+          <t>2024-08-26 13:05:53.231298</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="n">
+        <v>440</v>
+      </c>
+      <c r="B441" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C441" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D441" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:30:23.776930</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="n">
+        <v>441</v>
+      </c>
+      <c r="B442" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C442" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D442" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:30:45.012971</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="n">
+        <v>442</v>
+      </c>
+      <c r="B443" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C443" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D443" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:31:18.346953</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="n">
+        <v>443</v>
+      </c>
+      <c r="B444" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C444" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D444" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:36:40.169119</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="n">
+        <v>444</v>
+      </c>
+      <c r="B445" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C445" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D445" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:43:08.512422</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="n">
+        <v>445</v>
+      </c>
+      <c r="B446" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C446" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D446" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:43:27.317933</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="n">
+        <v>446</v>
+      </c>
+      <c r="B447" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C447" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D447" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:50:51.908395</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="n">
+        <v>447</v>
+      </c>
+      <c r="B448" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C448" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D448" t="inlineStr">
+        <is>
+          <t>2024-08-26 16:53:47.437648</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="n">
+        <v>448</v>
+      </c>
+      <c r="B449" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C449" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D449" t="inlineStr">
+        <is>
+          <t>2024-08-26 18:05:04.644972</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="n">
+        <v>449</v>
+      </c>
+      <c r="B450" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C450" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D450" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:01:09.896097</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:18:18.706862</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:20:02.551071</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="n">
+        <v>452</v>
+      </c>
+      <c r="B453" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C453" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D453" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:33:46.149550</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="n">
+        <v>453</v>
+      </c>
+      <c r="B454" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C454" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D454" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:46:21.374791</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="n">
+        <v>454</v>
+      </c>
+      <c r="B455" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C455" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D455" t="inlineStr">
+        <is>
+          <t>2024-08-26 19:47:03.046262</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="n">
+        <v>455</v>
+      </c>
+      <c r="B456" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C456" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Otomatis</t>
+        </is>
+      </c>
+      <c r="D456" t="inlineStr">
+        <is>
+          <t>2024-08-26 20:00:38.225469</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="n">
+        <v>456</v>
+      </c>
+      <c r="B457" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C457" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D457" t="inlineStr">
+        <is>
+          <t>2024-08-26 20:36:18.782328</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="n">
+        <v>457</v>
+      </c>
+      <c r="B458" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C458" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D458" t="inlineStr">
+        <is>
+          <t>2024-08-27 13:24:48.542208</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="n">
+        <v>458</v>
+      </c>
+      <c r="B459" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C459" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D459" t="inlineStr">
+        <is>
+          <t>2024-08-27 13:28:53.964453</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="n">
+        <v>459</v>
+      </c>
+      <c r="B460" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C460" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D460" t="inlineStr">
+        <is>
+          <t>2024-08-27 13:29:12.460539</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="n">
+        <v>460</v>
+      </c>
+      <c r="B461" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C461" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D461" t="inlineStr">
+        <is>
+          <t>2024-08-27 14:19:06.964179</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="n">
+        <v>461</v>
+      </c>
+      <c r="B462" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C462" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D462" t="inlineStr">
+        <is>
+          <t>2024-08-27 14:19:53.023557</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="n">
+        <v>462</v>
+      </c>
+      <c r="B463" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C463" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D463" t="inlineStr">
+        <is>
+          <t>2024-08-27 16:44:24.504989</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="n">
+        <v>463</v>
+      </c>
+      <c r="B464" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C464" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D464" t="inlineStr">
+        <is>
+          <t>2024-08-27 16:45:29.497115</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="n">
+        <v>464</v>
+      </c>
+      <c r="B465" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C465" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D465" t="inlineStr">
+        <is>
+          <t>2024-08-27 16:59:09.408768</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="n">
+        <v>465</v>
+      </c>
+      <c r="B466" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C466" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D466" t="inlineStr">
+        <is>
+          <t>2024-08-27 17:33:42.091708</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="n">
+        <v>466</v>
+      </c>
+      <c r="B467" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C467" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Otomatis</t>
+        </is>
+      </c>
+      <c r="D467" t="inlineStr">
+        <is>
+          <t>2024-08-27 19:01:08.971834</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="n">
+        <v>467</v>
+      </c>
+      <c r="B468" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C468" t="inlineStr">
+        <is>
+          <t>Mengirim Laporan Realisasi Tindak Lanjut JN Max Manual</t>
+        </is>
+      </c>
+      <c r="D468" t="inlineStr">
+        <is>
+          <t>2024-08-27 19:26:35.041564</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="n">
+        <v>468</v>
+      </c>
+      <c r="B469" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C469" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Otomatis</t>
+        </is>
+      </c>
+      <c r="D469" t="inlineStr">
+        <is>
+          <t>2024-08-27 20:00:33.807929</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="n">
+        <v>469</v>
+      </c>
+      <c r="B470" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C470" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D470" t="inlineStr">
+        <is>
+          <t>2024-08-27 20:32:00.265482</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="n">
+        <v>470</v>
+      </c>
+      <c r="B471" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C471" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D471" t="inlineStr">
+        <is>
+          <t>2024-08-28 11:14:00.851289</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="n">
+        <v>471</v>
+      </c>
+      <c r="B472" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C472" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D472" t="inlineStr">
+        <is>
+          <t>2024-08-28 11:19:33.691991</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="n">
+        <v>472</v>
+      </c>
+      <c r="B473" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C473" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D473" t="inlineStr">
+        <is>
+          <t>2024-08-28 11:24:46.388260</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="n">
+        <v>473</v>
+      </c>
+      <c r="B474" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C474" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D474" t="inlineStr">
+        <is>
+          <t>2024-08-28 11:25:11.845344</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="n">
+        <v>474</v>
+      </c>
+      <c r="B475" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C475" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D475" t="inlineStr">
+        <is>
+          <t>2024-08-28 16:36:37.823721</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="n">
+        <v>475</v>
+      </c>
+      <c r="B476" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C476" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D476" t="inlineStr">
+        <is>
+          <t>2024-08-28 16:40:40.989581</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="n">
+        <v>476</v>
+      </c>
+      <c r="B477" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C477" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D477" t="inlineStr">
+        <is>
+          <t>2024-08-28 16:46:05.773992</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="n">
+        <v>477</v>
+      </c>
+      <c r="B478" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C478" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D478" t="inlineStr">
+        <is>
+          <t>2024-08-28 16:46:27.984680</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="n">
+        <v>478</v>
+      </c>
+      <c r="B479" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C479" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D479" t="inlineStr">
+        <is>
+          <t>2024-08-28 16:46:46.568623</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="n">
+        <v>479</v>
+      </c>
+      <c r="B480" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C480" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D480" t="inlineStr">
+        <is>
+          <t>2024-08-28 18:08:05.544395</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="n">
+        <v>480</v>
+      </c>
+      <c r="B481" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C481" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D481" t="inlineStr">
+        <is>
+          <t>2024-08-28 18:55:14.054016</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="n">
+        <v>481</v>
+      </c>
+      <c r="B482" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C482" t="inlineStr">
+        <is>
+          <t>mengupdate laporan spreadsheet monitoring JN Max UID Manual</t>
+        </is>
+      </c>
+      <c r="D482" t="inlineStr">
+        <is>
+          <t>2024-08-28 19:04:51.346133</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="n">
+        <v>482</v>
+      </c>
+      <c r="B483" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C483" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D483" t="inlineStr">
+        <is>
+          <t>2024-08-28 20:33:52.155387</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="n">
+        <v>483</v>
+      </c>
+      <c r="B484" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C484" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D484" t="inlineStr">
+        <is>
+          <t>2024-08-29 14:40:19.695858</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="n">
+        <v>484</v>
+      </c>
+      <c r="B485" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C485" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D485" t="inlineStr">
+        <is>
+          <t>2024-08-29 14:41:04.497373</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="n">
+        <v>485</v>
+      </c>
+      <c r="B486" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C486" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D486" t="inlineStr">
+        <is>
+          <t>2024-08-29 15:41:23.771455</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="n">
+        <v>486</v>
+      </c>
+      <c r="B487" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C487" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D487" t="inlineStr">
+        <is>
+          <t>2024-08-29 15:41:55.962749</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="n">
+        <v>487</v>
+      </c>
+      <c r="B488" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C488" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D488" t="inlineStr">
+        <is>
+          <t>2024-08-29 16:20:06.462577</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="n">
+        <v>488</v>
+      </c>
+      <c r="B489" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C489" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D489" t="inlineStr">
+        <is>
+          <t>2024-08-29 16:27:37.222740</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="n">
+        <v>489</v>
+      </c>
+      <c r="B490" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C490" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D490" t="inlineStr">
+        <is>
+          <t>2024-08-29 16:48:13.115506</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="n">
+        <v>490</v>
+      </c>
+      <c r="B491" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C491" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D491" t="inlineStr">
+        <is>
+          <t>2024-08-29 17:39:32.053952</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="n">
+        <v>491</v>
+      </c>
+      <c r="B492" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C492" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D492" t="inlineStr">
+        <is>
+          <t>2024-08-29 17:40:00.477762</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="n">
+        <v>492</v>
+      </c>
+      <c r="B493" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C493" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D493" t="inlineStr">
+        <is>
+          <t>2024-08-29 18:08:12.623860</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="n">
+        <v>493</v>
+      </c>
+      <c r="B494" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C494" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D494" t="inlineStr">
+        <is>
+          <t>2024-08-29 19:07:29.950194</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="n">
+        <v>494</v>
+      </c>
+      <c r="B495" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C495" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D495" t="inlineStr">
+        <is>
+          <t>2024-08-29 19:08:07.499057</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="n">
+        <v>495</v>
+      </c>
+      <c r="B496" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C496" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D496" t="inlineStr">
+        <is>
+          <t>2024-08-29 20:31:52.855145</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="n">
+        <v>496</v>
+      </c>
+      <c r="B497" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C497" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D497" t="inlineStr">
+        <is>
+          <t>2024-08-30 05:46:42.108784</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="n">
+        <v>497</v>
+      </c>
+      <c r="B498" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C498" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D498" t="inlineStr">
+        <is>
+          <t>2024-08-30 05:47:04.801498</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="n">
+        <v>498</v>
+      </c>
+      <c r="B499" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C499" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D499" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:53:55.817520</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="n">
+        <v>499</v>
+      </c>
+      <c r="B500" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C500" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D500" t="inlineStr">
+        <is>
+          <t>2024-08-30 13:55:32.579627</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="n">
+        <v>500</v>
+      </c>
+      <c r="B501" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C501" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D501" t="inlineStr">
+        <is>
+          <t>2024-08-30 14:57:54.125860</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="n">
+        <v>501</v>
+      </c>
+      <c r="B502" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C502" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D502" t="inlineStr">
+        <is>
+          <t>2024-08-30 14:58:17.796079</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="n">
+        <v>502</v>
+      </c>
+      <c r="B503" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C503" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D503" t="inlineStr">
+        <is>
+          <t>2024-08-30 15:31:05.774999</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="n">
+        <v>503</v>
+      </c>
+      <c r="B504" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C504" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D504" t="inlineStr">
+        <is>
+          <t>2024-08-30 15:31:30.508461</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="n">
+        <v>504</v>
+      </c>
+      <c r="B505" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C505" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D505" t="inlineStr">
+        <is>
+          <t>2024-08-30 16:33:17.042360</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="n">
+        <v>505</v>
+      </c>
+      <c r="B506" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C506" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>2024-08-30 16:33:40.003739</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="n">
+        <v>506</v>
+      </c>
+      <c r="B507" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C507" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>2024-08-30 16:38:40.869108</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="n">
+        <v>507</v>
+      </c>
+      <c r="B508" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C508" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:40:12.507646</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C509" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:47:20.402813</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C510" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:51:36.847859</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C511" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:55:28.956922</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C512" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:55:55.819621</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C513" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D513" t="inlineStr">
+        <is>
+          <t>2024-08-30 17:56:13.309607</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C514" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D514" t="inlineStr">
+        <is>
+          <t>2024-08-30 18:04:20.382810</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C515" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D515" t="inlineStr">
+        <is>
+          <t>2024-08-30 20:35:08.507767</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C516" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D516" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:17:56.910551</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C517" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D517" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:21:51.953333</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C518" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D518" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:22:11.168653</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C519" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D519" t="inlineStr">
+        <is>
+          <t>2024-08-30 21:31:47.763650</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C520" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D520" t="inlineStr">
+        <is>
+          <t>2024-08-31 18:04:40.793479</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C521" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D521" t="inlineStr">
+        <is>
+          <t>2024-08-31 20:34:22.152545</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1029804860</v>
+      </c>
+      <c r="C522" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D522" t="inlineStr">
+        <is>
+          <t>2024-09-01 14:50:42.428465</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C523" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D523" t="inlineStr">
+        <is>
+          <t>2024-09-01 18:04:04.541572</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C524" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D524" t="inlineStr">
+        <is>
+          <t>2024-09-01 20:33:12.526554</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C525" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D525" t="inlineStr">
+        <is>
+          <t>2024-09-02 14:37:45.633680</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C526" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D526" t="inlineStr">
+        <is>
+          <t>2024-09-02 15:17:41.190614</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C527" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D527" t="inlineStr">
+        <is>
+          <t>2024-09-02 15:21:53.306985</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C528" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D528" t="inlineStr">
+        <is>
+          <t>2024-09-02 15:26:48.700369</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C529" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D529" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:51:59.357703</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C530" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D530" t="inlineStr">
+        <is>
+          <t>2024-09-03 08:53:24.812496</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C531" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D531" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:15:33.372316</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C532" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D532" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:16:07.437509</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C533" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D533" t="inlineStr">
+        <is>
+          <t>2024-09-03 16:18:06.508330</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C534" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D534" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:00:15.458312</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C535" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D535" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:00:54.387214</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C536" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D536" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:37:16.969776</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C537" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D537" t="inlineStr">
+        <is>
+          <t>2024-09-03 17:45:57.232055</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C538" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D538" t="inlineStr">
+        <is>
+          <t>2024-09-03 18:04:43.319138</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C539" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D539" t="inlineStr">
+        <is>
+          <t>2024-09-03 18:19:00.790843</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C540" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D540" t="inlineStr">
+        <is>
+          <t>2024-09-03 20:35:21.454735</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C541" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D541" t="inlineStr">
+        <is>
+          <t>2024-09-04 09:53:41.000559</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C542" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D542" t="inlineStr">
+        <is>
+          <t>2024-09-04 09:54:17.143235</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C543" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D543" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:39:16.769880</t>
+        </is>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C544" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D544" t="inlineStr">
+        <is>
+          <t>2024-09-04 10:40:11.769645</t>
+        </is>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C545" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D545" t="inlineStr">
+        <is>
+          <t>2024-09-04 16:17:22.918753</t>
+        </is>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C546" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D546" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:09:05.764920</t>
+        </is>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C547" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D547" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:12:59.522845</t>
+        </is>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C548" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D548" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:19:19.406863</t>
+        </is>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C549" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D549" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:23:15.158733</t>
+        </is>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C550" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D550" t="inlineStr">
+        <is>
+          <t>2024-09-04 17:52:28.739142</t>
+        </is>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C551" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D551" t="inlineStr">
+        <is>
+          <t>2024-09-04 20:32:32.388525</t>
+        </is>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C552" t="inlineStr">
+        <is>
+          <t>Info Pelanggan</t>
+        </is>
+      </c>
+      <c r="D552" t="inlineStr">
+        <is>
+          <t>2024-09-05 12:25:58.756700</t>
+        </is>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C553" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D553" t="inlineStr">
+        <is>
+          <t>2024-09-05 14:59:20.869681</t>
+        </is>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C554" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D554" t="inlineStr">
+        <is>
+          <t>2024-09-05 15:00:25.038100</t>
+        </is>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C555" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D555" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:56:47.773250</t>
+        </is>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C556" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D556" t="inlineStr">
+        <is>
+          <t>2024-09-05 16:57:58.877254</t>
+        </is>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C557" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D557" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:31:52.563724</t>
+        </is>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C558" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D558" t="inlineStr">
+        <is>
+          <t>2024-09-05 17:35:30.331331</t>
+        </is>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C559" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D559" t="inlineStr">
+        <is>
+          <t>2024-09-05 18:03:58.894569</t>
+        </is>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C560" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D560" t="inlineStr">
+        <is>
+          <t>2024-09-05 20:31:56.443815</t>
+        </is>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C561" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D561" t="inlineStr">
+        <is>
+          <t>2024-09-06 08:49:36.541540</t>
+        </is>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C562" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D562" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:09:41.468147</t>
+        </is>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C563" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D563" t="inlineStr">
+        <is>
+          <t>2024-09-06 10:12:10.787964</t>
+        </is>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C564" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D564" t="inlineStr">
+        <is>
+          <t>2024-09-06 14:37:43.150232</t>
+        </is>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C565" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D565" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:09:02.475484</t>
+        </is>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C566" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D566" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:12:50.718279</t>
+        </is>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C567" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D567" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:21:17.258728</t>
+        </is>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C568" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D568" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:21:42.143808</t>
+        </is>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C569" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D569" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:22:05.430819</t>
+        </is>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C570" t="inlineStr">
+        <is>
+          <t>Mendowload Laporan TUL 309</t>
+        </is>
+      </c>
+      <c r="D570" t="inlineStr">
+        <is>
+          <t>2024-09-06 15:22:28.462515</t>
+        </is>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C571" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D571" t="inlineStr">
+        <is>
+          <t>2024-09-06 16:17:28.689635</t>
+        </is>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C572" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D572" t="inlineStr">
+        <is>
+          <t>2024-09-06 16:18:08.391071</t>
+        </is>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C573" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D573" t="inlineStr">
+        <is>
+          <t>2024-09-06 18:04:22.967563</t>
+        </is>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C574" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D574" t="inlineStr">
+        <is>
+          <t>2024-09-06 18:33:58.365479</t>
+        </is>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C575" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D575" t="inlineStr">
+        <is>
+          <t>2024-09-06 19:56:37.584620</t>
+        </is>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C576" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D576" t="inlineStr">
+        <is>
+          <t>2024-09-06 20:31:43.004584</t>
+        </is>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C577" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D577" t="inlineStr">
+        <is>
+          <t>2024-09-07 18:04:03.079007</t>
+        </is>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C578" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D578" t="inlineStr">
+        <is>
+          <t>2024-09-07 20:32:01.865214</t>
+        </is>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C579" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D579" t="inlineStr">
+        <is>
+          <t>2024-09-08 20:32:02.492410</t>
+        </is>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C580" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D580" t="inlineStr">
+        <is>
+          <t>2024-09-09 14:20:30.623239</t>
+        </is>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C581" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D581" t="inlineStr">
+        <is>
+          <t>2024-09-09 14:59:10.483374</t>
+        </is>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C582" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D582" t="inlineStr">
+        <is>
+          <t>2024-09-09 17:02:41.357060</t>
+        </is>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C583" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D583" t="inlineStr">
+        <is>
+          <t>2024-09-09 17:20:24.499033</t>
+        </is>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C584" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D584" t="inlineStr">
+        <is>
+          <t>2024-09-09 17:21:34.690770</t>
+        </is>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C585" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D585" t="inlineStr">
+        <is>
+          <t>2024-09-09 18:05:05.279935</t>
+        </is>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C586" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D586" t="inlineStr">
+        <is>
+          <t>2024-09-09 18:12:15.921494</t>
+        </is>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C587" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D587" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:07:52.607141</t>
+        </is>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C588" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D588" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:15:40.066930</t>
+        </is>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C589" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D589" t="inlineStr">
+        <is>
+          <t>2024-09-10 08:16:13.380782</t>
+        </is>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C590" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D590" t="inlineStr">
+        <is>
+          <t>2024-09-10 18:33:52.853745</t>
+        </is>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C591" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D591" t="inlineStr">
+        <is>
+          <t>2024-09-10 20:33:21.038284</t>
+        </is>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C592" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D592" t="inlineStr">
+        <is>
+          <t>2024-09-11 12:44:46.652803</t>
+        </is>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C593" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D593" t="inlineStr">
+        <is>
+          <t>2024-09-11 12:45:23.245138</t>
+        </is>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C594" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D594" t="inlineStr">
+        <is>
+          <t>2024-09-11 13:09:09.750547</t>
+        </is>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C595" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D595" t="inlineStr">
+        <is>
+          <t>2024-09-11 13:09:38.577319</t>
+        </is>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C596" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D596" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:02:07.550679</t>
+        </is>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C597" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D597" t="inlineStr">
+        <is>
+          <t>2024-09-11 16:02:26.220254</t>
+        </is>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C598" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D598" t="inlineStr">
+        <is>
+          <t>2024-09-11 18:07:43.186874</t>
+        </is>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C599" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D599" t="inlineStr">
+        <is>
+          <t>2024-09-11 18:51:03.955967</t>
+        </is>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C600" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D600" t="inlineStr">
+        <is>
+          <t>2024-09-11 18:51:28.641593</t>
+        </is>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C601" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D601" t="inlineStr">
+        <is>
+          <t>2024-09-11 20:33:11.023739</t>
+        </is>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C602" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D602" t="inlineStr">
+        <is>
+          <t>2024-09-12 11:27:51.714233</t>
+        </is>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C603" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D603" t="inlineStr">
+        <is>
+          <t>2024-09-12 11:28:16.247171</t>
+        </is>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C604" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D604" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:22:44.527374</t>
+        </is>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C605" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D605" t="inlineStr">
+        <is>
+          <t>2024-09-12 13:23:07.471917</t>
+        </is>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C606" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D606" t="inlineStr">
+        <is>
+          <t>2024-09-12 16:23:06.957921</t>
+        </is>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C607" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D607" t="inlineStr">
+        <is>
+          <t>2024-09-12 16:23:31.155864</t>
+        </is>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C608" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D608" t="inlineStr">
+        <is>
+          <t>2024-09-12 18:04:51.504088</t>
+        </is>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C609" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D609" t="inlineStr">
+        <is>
+          <t>2024-09-12 19:30:54.746527</t>
+        </is>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C610" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D610" t="inlineStr">
+        <is>
+          <t>2024-09-12 19:33:59.417788</t>
+        </is>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C611" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D611" t="inlineStr">
+        <is>
+          <t>2024-09-12 20:32:06.863036</t>
+        </is>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C612" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D612" t="inlineStr">
+        <is>
+          <t>2024-09-13 17:04:34.673992</t>
+        </is>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C613" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D613" t="inlineStr">
+        <is>
+          <t>2024-09-13 17:04:55.422607</t>
+        </is>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C614" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D614" t="inlineStr">
+        <is>
+          <t>2024-09-13 18:03:57.207681</t>
+        </is>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="n">
+        <v>961922211</v>
+      </c>
+      <c r="C615" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D615" t="inlineStr">
+        <is>
+          <t>2024-09-13 18:32:57.480427</t>
+        </is>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C616" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D616" t="inlineStr">
+        <is>
+          <t>2024-09-13 20:33:17.625748</t>
+        </is>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C617" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D617" t="inlineStr">
+        <is>
+          <t>2024-09-14 18:04:10.977455</t>
+        </is>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C618" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D618" t="inlineStr">
+        <is>
+          <t>2024-09-14 20:31:40.928767</t>
+        </is>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C619" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D619" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:55:57.304475</t>
+        </is>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C620" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D620" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:56:43.680920</t>
+        </is>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C621" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D621" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:13:12.358995</t>
+        </is>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C622" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D622" t="inlineStr">
+        <is>
+          <t>2024-09-17 17:13:34.778023</t>
+        </is>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C623" t="inlineStr">
+        <is>
+          <t>Mengupdate laporan TS P2TL Sesuai Jadwal</t>
+        </is>
+      </c>
+      <c r="D623" t="inlineStr">
+        <is>
+          <t>2024-09-17 18:04:24.314804</t>
+        </is>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C624" t="inlineStr">
+        <is>
+          <t>mengupdate Realisasi H-1 P1 dan PD</t>
+        </is>
+      </c>
+      <c r="D624" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:32:07.160647</t>
+        </is>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C625" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D625" t="inlineStr">
+        <is>
+          <t>2024-09-18 13:37:24.938830</t>
+        </is>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C626" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D626" t="inlineStr">
+        <is>
+          <t>2024-09-18 13:38:11.859671</t>
+        </is>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C627" t="inlineStr">
+        <is>
+          <t>Update Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D627" t="inlineStr">
+        <is>
+          <t>2024-09-18 15:42:19.801790</t>
+        </is>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="n">
+        <v>-4146843555</v>
+      </c>
+      <c r="C628" t="inlineStr">
+        <is>
+          <t>Kirim Laporan TS Harian</t>
+        </is>
+      </c>
+      <c r="D628" t="inlineStr">
+        <is>
+          <t>2024-09-18 15:57:46.885947</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
